--- a/Being-Reviewed/Letter-tracker-edited.xlsx
+++ b/Being-Reviewed/Letter-tracker-edited.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24500" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1743,7 +1743,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,6 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2120,9 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D441" sqref="D441"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15354,8 +15355,8 @@
       <c r="C427" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D427" s="1" t="s">
-        <v>535</v>
+      <c r="D427" s="9" t="s">
+        <v>536</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>

--- a/Being-Reviewed/Letter-tracker-edited.xlsx
+++ b/Being-Reviewed/Letter-tracker-edited.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="542">
   <si>
     <t>File</t>
   </si>
@@ -1635,16 +1635,16 @@
     <t>private; review layout</t>
   </si>
   <si>
-    <t>page 4 pb missing</t>
-  </si>
-  <si>
     <t>TEI needs pbs</t>
   </si>
   <si>
-    <t>TEI needs pb fix; review layout</t>
-  </si>
-  <si>
-    <t>Review TEI</t>
+    <t>page 4 pb missing; fixed</t>
+  </si>
+  <si>
+    <t>TEI needs pb fix; review layout; fixed</t>
+  </si>
+  <si>
+    <t>seems OK; check with Lauren; fixed</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1720,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1769,7 +1779,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1780,6 +1790,11 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1790,6 +1805,11 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2121,9 +2141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10748,7 +10768,7 @@
         <v>516</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -13151,7 +13171,9 @@
         <v>255</v>
       </c>
       <c r="C359" s="5"/>
-      <c r="D359" s="2"/>
+      <c r="D359" s="7" t="s">
+        <v>534</v>
+      </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -13185,8 +13207,8 @@
       <c r="C360" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>538</v>
+      <c r="D360" s="9" t="s">
+        <v>539</v>
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -13445,7 +13467,7 @@
       <c r="C368" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="D368" s="9" t="s">
         <v>540</v>
       </c>
       <c r="E368" s="1"/>
@@ -13481,8 +13503,8 @@
       <c r="C369" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="D369" s="2" t="s">
-        <v>533</v>
+      <c r="D369" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -14321,7 +14343,7 @@
       <c r="C395" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="D395" s="1" t="s">
+      <c r="D395" s="9" t="s">
         <v>535</v>
       </c>
       <c r="E395" s="1"/>
@@ -14773,7 +14795,9 @@
         <v>255</v>
       </c>
       <c r="C409" s="5"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="7" t="s">
+        <v>534</v>
+      </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
@@ -14871,7 +14895,9 @@
       <c r="C412" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D412" s="2"/>
+      <c r="D412" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
@@ -14937,7 +14963,9 @@
       <c r="C414" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D414" s="2"/>
+      <c r="D414" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
@@ -15487,7 +15515,9 @@
       <c r="C431" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D431" s="2"/>
+      <c r="D431" s="9" t="s">
+        <v>536</v>
+      </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
@@ -15745,8 +15775,8 @@
       <c r="C439" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D439" s="1" t="s">
-        <v>541</v>
+      <c r="D439" s="9" t="s">
+        <v>536</v>
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>

--- a/Being-Reviewed/Letter-tracker-edited.xlsx
+++ b/Being-Reviewed/Letter-tracker-edited.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="543">
   <si>
     <t>File</t>
   </si>
@@ -1645,13 +1645,16 @@
   </si>
   <si>
     <t>seems OK; check with Lauren; fixed</t>
+  </si>
+  <si>
+    <t>private; review layout; fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1667,6 +1670,10 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1753,7 +1760,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,6 +1785,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2142,8 +2150,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12109,8 +12117,8 @@
       <c r="C326" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>537</v>
+      <c r="D326" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -12209,7 +12217,9 @@
       <c r="C329" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D329" s="2"/>
+      <c r="D329" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -12435,7 +12445,9 @@
       <c r="C336" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D336" s="2"/>
+      <c r="D336" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>

--- a/Being-Reviewed/Letter-tracker-edited.xlsx
+++ b/Being-Reviewed/Letter-tracker-edited.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24800" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="543">
   <si>
     <t>File</t>
   </si>
@@ -1727,8 +1727,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1787,7 +1793,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1803,6 +1809,9 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1818,6 +1827,9 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2150,8 +2162,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11953,7 +11965,9 @@
       <c r="C321" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D321" s="2"/>
+      <c r="D321" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -12019,7 +12033,9 @@
       <c r="C323" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D323" s="2"/>
+      <c r="D323" s="8" t="s">
+        <v>536</v>
+      </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>

--- a/Being-Reviewed/Letter-tracker-edited.xlsx
+++ b/Being-Reviewed/Letter-tracker-edited.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="542">
   <si>
     <t>File</t>
   </si>
@@ -1620,9 +1620,6 @@
     <t>I was unable to finish this letter because page three of the image was repeated for the remaining five pages of the letter.</t>
   </si>
   <si>
-    <t>seems OK; check with Lauren</t>
-  </si>
-  <si>
     <t>done to here from below</t>
   </si>
   <si>
@@ -1635,9 +1632,6 @@
     <t>private; review layout</t>
   </si>
   <si>
-    <t>TEI needs pbs</t>
-  </si>
-  <si>
     <t>page 4 pb missing; fixed</t>
   </si>
   <si>
@@ -1648,6 +1642,9 @@
   </si>
   <si>
     <t>private; review layout; fixed</t>
+  </si>
+  <si>
+    <t>need images 5-8</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1724,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1793,7 +1800,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1812,6 +1819,11 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1830,6 +1842,11 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2162,8 +2179,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10494,7 +10511,7 @@
         <v>515</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -10787,8 +10804,8 @@
       <c r="C285" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>538</v>
+      <c r="D285" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -10823,7 +10840,9 @@
       <c r="C286" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D286" s="2"/>
+      <c r="D286" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -10922,7 +10941,7 @@
         <v>517</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -10958,7 +10977,7 @@
         <v>518</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -11473,8 +11492,8 @@
       <c r="C306" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>533</v>
+      <c r="D306" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -11765,7 +11784,9 @@
       <c r="C315" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D315" s="2"/>
+      <c r="D315" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -11799,7 +11820,9 @@
       <c r="C316" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D316" s="2"/>
+      <c r="D316" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -11834,7 +11857,7 @@
         <v>519</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -11966,7 +11989,7 @@
         <v>520</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -12034,7 +12057,7 @@
         <v>521</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -12134,7 +12157,7 @@
         <v>522</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -12234,7 +12257,7 @@
         <v>340</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -12462,7 +12485,7 @@
         <v>523</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -13200,7 +13223,7 @@
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -13236,7 +13259,7 @@
         <v>524</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -13496,7 +13519,7 @@
         <v>525</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -13532,7 +13555,7 @@
         <v>526</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
@@ -13760,7 +13783,7 @@
         <v>527</v>
       </c>
       <c r="D376" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
@@ -14372,7 +14395,7 @@
         <v>528</v>
       </c>
       <c r="D395" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
@@ -14824,7 +14847,7 @@
       </c>
       <c r="C409" s="5"/>
       <c r="D409" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
@@ -14924,7 +14947,7 @@
         <v>424</v>
       </c>
       <c r="D412" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
@@ -14992,7 +15015,7 @@
         <v>427</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
@@ -15412,7 +15435,7 @@
         <v>530</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -15544,7 +15567,7 @@
         <v>445</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
@@ -15804,7 +15827,7 @@
         <v>454</v>
       </c>
       <c r="D439" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
@@ -15872,7 +15895,7 @@
         <v>457</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
@@ -16132,7 +16155,7 @@
       </c>
       <c r="C449" s="5"/>
       <c r="D449" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
